--- a/fakture/Book1.xlsx
+++ b/fakture/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nenadstupar/Documents/GitHub/expresstrans/fakture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F802997-FA90-714D-8B88-849D5C22B6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD51B81D-CE96-194E-A70A-504FEAAB4157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DA9B066F-94CC-6E4D-9754-FE18DB1A04AF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{DA9B066F-94CC-6E4D-9754-FE18DB1A04AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
   <si>
     <t>Banja Luka</t>
   </si>
@@ -110,79 +110,217 @@
     <t>Wiesbaden</t>
   </si>
   <si>
-    <t>Laktaši</t>
-  </si>
-  <si>
-    <t>Gradiška</t>
-  </si>
-  <si>
-    <t>Marina Simić</t>
-  </si>
-  <si>
-    <t>013026</t>
-  </si>
-  <si>
-    <t>Ljubiša Milanković</t>
-  </si>
-  <si>
-    <t>013027</t>
-  </si>
-  <si>
-    <t>Vesna Ličinar</t>
-  </si>
-  <si>
-    <t>013028</t>
-  </si>
-  <si>
-    <t>Dragan Ignjatić</t>
-  </si>
-  <si>
-    <t>013029</t>
-  </si>
-  <si>
-    <t>Petar Malkić</t>
-  </si>
-  <si>
-    <t>013030</t>
-  </si>
-  <si>
-    <t>Zorka Malkić</t>
-  </si>
-  <si>
-    <t>013031</t>
-  </si>
-  <si>
-    <t>Goran Pevulja</t>
-  </si>
-  <si>
     <t>Jedan smjer</t>
   </si>
   <si>
-    <t>013032</t>
-  </si>
-  <si>
-    <t>Nadica P</t>
-  </si>
-  <si>
-    <t>013033</t>
-  </si>
-  <si>
-    <t>Damjan Cvijetić</t>
-  </si>
-  <si>
-    <t>012481</t>
-  </si>
-  <si>
-    <t>Wengler</t>
-  </si>
-  <si>
-    <t>012642</t>
-  </si>
-  <si>
-    <t>Jovan Radukić</t>
-  </si>
-  <si>
-    <t>5044995</t>
+    <t>Derventa</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Stanica BL</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>5258330</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Doboj</t>
+  </si>
+  <si>
+    <t>Nikoleta Marić</t>
+  </si>
+  <si>
+    <t>Knežević R</t>
+  </si>
+  <si>
+    <t>Boban Savković</t>
+  </si>
+  <si>
+    <t>Boris Romanjski</t>
+  </si>
+  <si>
+    <t>Slavica Milinčić</t>
+  </si>
+  <si>
+    <t>Jević</t>
+  </si>
+  <si>
+    <t>Slobodan Tepić</t>
+  </si>
+  <si>
+    <t>Radojka Stojadinović</t>
+  </si>
+  <si>
+    <t>Divna Bajić</t>
+  </si>
+  <si>
+    <t>Filip Čakarević</t>
+  </si>
+  <si>
+    <t>Dječija</t>
+  </si>
+  <si>
+    <t>Petar Ljubišić</t>
+  </si>
+  <si>
+    <t>Stevanija Kutić</t>
+  </si>
+  <si>
+    <t>Jovan Milanović</t>
+  </si>
+  <si>
+    <t>Milena Marković</t>
+  </si>
+  <si>
+    <t>Vuk Škorić</t>
+  </si>
+  <si>
+    <t>Petrić</t>
+  </si>
+  <si>
+    <t>015498</t>
+  </si>
+  <si>
+    <t>Rade Krneta</t>
+  </si>
+  <si>
+    <t>016094</t>
+  </si>
+  <si>
+    <t>Nadira Todorović</t>
+  </si>
+  <si>
+    <t>016072</t>
+  </si>
+  <si>
+    <t>Boban Gunjević</t>
+  </si>
+  <si>
+    <t>016117</t>
+  </si>
+  <si>
+    <t>Vasiljević D</t>
+  </si>
+  <si>
+    <t>016168</t>
+  </si>
+  <si>
+    <t>Jeličić</t>
+  </si>
+  <si>
+    <t>016259</t>
+  </si>
+  <si>
+    <t>Marija Miličić</t>
+  </si>
+  <si>
+    <t>016425</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Vaslije Brešo</t>
+  </si>
+  <si>
+    <t>016565</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Dragana Zarić</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Jelena Karanović</t>
+  </si>
+  <si>
+    <t>Stanica GR</t>
+  </si>
+  <si>
+    <t>1232679</t>
+  </si>
+  <si>
+    <t>016310</t>
+  </si>
+  <si>
+    <t>016311</t>
+  </si>
+  <si>
+    <t>016312</t>
+  </si>
+  <si>
+    <t>016313</t>
+  </si>
+  <si>
+    <t>016314</t>
+  </si>
+  <si>
+    <t>016315</t>
+  </si>
+  <si>
+    <t>016316</t>
+  </si>
+  <si>
+    <t>016317</t>
+  </si>
+  <si>
+    <t>016318</t>
+  </si>
+  <si>
+    <t>016319</t>
+  </si>
+  <si>
+    <t>016320</t>
+  </si>
+  <si>
+    <t>016321</t>
+  </si>
+  <si>
+    <t>016322</t>
+  </si>
+  <si>
+    <t>016323</t>
+  </si>
+  <si>
+    <t>016324</t>
   </si>
 </sst>
 </file>
@@ -190,7 +328,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1]"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -558,13 +696,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAF4E8B-DC0B-414F-BF3F-78A89B821379}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -594,7 +735,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -603,13 +744,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="4">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -617,22 +758,22 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -640,7 +781,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -649,13 +790,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -663,7 +804,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -672,13 +813,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="4">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -686,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -695,13 +836,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="4">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -709,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -718,13 +859,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="4">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -732,22 +873,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -755,22 +896,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -778,22 +919,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -801,22 +942,22 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4">
         <v>45</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -824,22 +965,344 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4">
+        <v>85</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="4">
+        <v>135</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E15" s="4">
+        <v>105</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
+      <c r="G15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4">
+        <v>55</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/fakture/Book1.xlsx
+++ b/fakture/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nenadstupar/Documents/GitHub/expresstrans/fakture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD51B81D-CE96-194E-A70A-504FEAAB4157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DFFD6F-4D8E-C84E-A4B7-E9433A1B9D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{DA9B066F-94CC-6E4D-9754-FE18DB1A04AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Banja Luka</t>
   </si>
@@ -107,220 +107,85 @@
     <t>Broj karte</t>
   </si>
   <si>
-    <t>Wiesbaden</t>
-  </si>
-  <si>
-    <t>Jedan smjer</t>
-  </si>
-  <si>
-    <t>Derventa</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Stanica BL</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>Frankfurt</t>
   </si>
   <si>
-    <t>5258330</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>Laktaši</t>
+  </si>
+  <si>
+    <t>Erlangen</t>
   </si>
   <si>
     <t>Doboj</t>
   </si>
   <si>
-    <t>Nikoleta Marić</t>
-  </si>
-  <si>
-    <t>Knežević R</t>
-  </si>
-  <si>
-    <t>Boban Savković</t>
-  </si>
-  <si>
-    <t>Boris Romanjski</t>
-  </si>
-  <si>
-    <t>Slavica Milinčić</t>
-  </si>
-  <si>
-    <t>Jević</t>
-  </si>
-  <si>
-    <t>Slobodan Tepić</t>
-  </si>
-  <si>
-    <t>Radojka Stojadinović</t>
-  </si>
-  <si>
-    <t>Divna Bajić</t>
-  </si>
-  <si>
-    <t>Filip Čakarević</t>
-  </si>
-  <si>
-    <t>Dječija</t>
-  </si>
-  <si>
-    <t>Petar Ljubišić</t>
-  </si>
-  <si>
-    <t>Stevanija Kutić</t>
-  </si>
-  <si>
-    <t>Jovan Milanović</t>
-  </si>
-  <si>
-    <t>Milena Marković</t>
-  </si>
-  <si>
-    <t>Vuk Škorić</t>
-  </si>
-  <si>
-    <t>Petrić</t>
-  </si>
-  <si>
-    <t>015498</t>
-  </si>
-  <si>
-    <t>Rade Krneta</t>
-  </si>
-  <si>
-    <t>016094</t>
-  </si>
-  <si>
-    <t>Nadira Todorović</t>
-  </si>
-  <si>
-    <t>016072</t>
-  </si>
-  <si>
-    <t>Boban Gunjević</t>
-  </si>
-  <si>
-    <t>016117</t>
-  </si>
-  <si>
-    <t>Vasiljević D</t>
-  </si>
-  <si>
-    <t>016168</t>
-  </si>
-  <si>
-    <t>Jeličić</t>
-  </si>
-  <si>
-    <t>016259</t>
-  </si>
-  <si>
-    <t>Marija Miličić</t>
-  </si>
-  <si>
-    <t>016425</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Vaslije Brešo</t>
-  </si>
-  <si>
-    <t>016565</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Dragana Zarić</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Jelena Karanović</t>
-  </si>
-  <si>
-    <t>Stanica GR</t>
-  </si>
-  <si>
-    <t>1232679</t>
-  </si>
-  <si>
-    <t>016310</t>
-  </si>
-  <si>
-    <t>016311</t>
-  </si>
-  <si>
-    <t>016312</t>
-  </si>
-  <si>
-    <t>016313</t>
-  </si>
-  <si>
-    <t>016314</t>
-  </si>
-  <si>
-    <t>016315</t>
-  </si>
-  <si>
-    <t>016316</t>
-  </si>
-  <si>
-    <t>016317</t>
-  </si>
-  <si>
-    <t>016318</t>
-  </si>
-  <si>
-    <t>016319</t>
-  </si>
-  <si>
-    <t>016320</t>
-  </si>
-  <si>
-    <t>016321</t>
-  </si>
-  <si>
-    <t>016322</t>
-  </si>
-  <si>
-    <t>016323</t>
-  </si>
-  <si>
-    <t>016324</t>
+    <t>Wurzburg</t>
+  </si>
+  <si>
+    <t>Pejcic Borica</t>
+  </si>
+  <si>
+    <t>017986</t>
+  </si>
+  <si>
+    <t>Sulo Razija</t>
+  </si>
+  <si>
+    <t>017987</t>
+  </si>
+  <si>
+    <t>Tomic Milenko</t>
+  </si>
+  <si>
+    <t>017988</t>
+  </si>
+  <si>
+    <t>Music Edina</t>
+  </si>
+  <si>
+    <t>017989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristina Bubnjevic </t>
+  </si>
+  <si>
+    <t>017990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milica Bubnjevic </t>
+  </si>
+  <si>
+    <t>017991</t>
+  </si>
+  <si>
+    <t>Zabic Milan</t>
+  </si>
+  <si>
+    <t>017992</t>
+  </si>
+  <si>
+    <t>Pejcic Nedeljko</t>
+  </si>
+  <si>
+    <t>017191</t>
+  </si>
+  <si>
+    <t>Nisevic Zoran</t>
+  </si>
+  <si>
+    <t>017811</t>
+  </si>
+  <si>
+    <t>Docic Zoran</t>
+  </si>
+  <si>
+    <t>017956</t>
+  </si>
+  <si>
+    <t>Docic Dean</t>
+  </si>
+  <si>
+    <t>017957</t>
   </si>
 </sst>
 </file>
@@ -696,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAF4E8B-DC0B-414F-BF3F-78A89B821379}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G26"/>
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,22 +600,22 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -758,22 +623,22 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E3" s="4">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -781,7 +646,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -790,13 +655,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -804,22 +669,22 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -827,22 +692,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -850,22 +715,22 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -873,22 +738,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -896,22 +761,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -919,22 +784,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E10" s="4">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -942,22 +807,22 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="4">
-        <v>45</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -965,344 +830,22 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="4">
-        <v>85</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="4">
-        <v>135</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>55</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="4">
-        <v>105</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="4">
-        <v>55</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
